--- a/24-2cXYcoordinates.xlsx
+++ b/24-2cXYcoordinates.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shumpei/GoogleDrive/2018_0916_Ryokunaisho_morning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shumpei/GoogleDrive/2018_0916_Ryokunaisho_Morning_seminor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6E43B-823B-004E-BFE3-2A600F44E633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA5FF29-FE44-B14A-9B00-9446A49AAA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22900" windowHeight="11480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22900" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,18 +76,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -93,18 +96,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -308,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,9 +369,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,18 +654,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F66"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="2"/>
     <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="12" t="s">
@@ -663,8 +675,8 @@
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6">
+      <c r="A2" s="17">
         <v>5</v>
       </c>
       <c r="B2" s="3">
@@ -683,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>-1</v>
       </c>
@@ -703,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -723,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>7</v>
       </c>
@@ -743,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>-5</v>
       </c>
@@ -763,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>-7</v>
       </c>
@@ -783,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>-7</v>
       </c>
@@ -803,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>-1</v>
       </c>
@@ -823,8 +835,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
       <c r="B10" s="3">
@@ -843,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19" thickBot="1">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -863,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -877,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="C13" s="4">
         <v>11</v>
       </c>
@@ -891,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -905,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="C15" s="4">
         <v>13</v>
       </c>
@@ -919,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -933,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -947,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6">
       <c r="C18" s="4">
         <v>16</v>
       </c>
@@ -961,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -975,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" s="4">
         <v>18</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -1017,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6">
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6">
       <c r="C27" s="4">
         <v>25</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6">
       <c r="C28" s="4">
         <v>26</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6">
       <c r="C29" s="4">
         <v>27</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6">
       <c r="C30" s="4">
         <v>28</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6">
       <c r="C31" s="4">
         <v>29</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6">
       <c r="C32" s="4">
         <v>30</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6">
       <c r="C33" s="4">
         <v>31</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6">
       <c r="C34" s="4">
         <v>32</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6">
       <c r="C35" s="4">
         <v>33</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6">
       <c r="C36" s="4">
         <v>34</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6">
       <c r="C37" s="4">
         <v>35</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6">
       <c r="C38" s="4">
         <v>36</v>
       </c>
@@ -1241,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6">
       <c r="C39" s="4">
         <v>37</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6">
       <c r="C40" s="4">
         <v>38</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6">
       <c r="C41" s="4">
         <v>39</v>
       </c>
@@ -1283,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6">
       <c r="C42" s="4">
         <v>40</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6">
       <c r="C43" s="4">
         <v>41</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6">
       <c r="C44" s="4">
         <v>42</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6">
       <c r="C45" s="4">
         <v>43</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6">
       <c r="C46" s="4">
         <v>44</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6">
       <c r="C47" s="4">
         <v>45</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6">
       <c r="C48" s="4">
         <v>46</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6">
       <c r="C49" s="4">
         <v>47</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6">
       <c r="C50" s="4">
         <v>48</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6">
       <c r="C51" s="4">
         <v>49</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6">
       <c r="C52" s="4">
         <v>50</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6">
       <c r="C53" s="4">
         <v>51</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6">
       <c r="C54" s="4">
         <v>52</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6">
       <c r="C55" s="4">
         <v>53</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6">
       <c r="C56" s="4">
         <v>54</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6">
       <c r="C57" s="4">
         <v>55</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6">
       <c r="C58" s="4">
         <v>56</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6">
       <c r="C59" s="4">
         <v>57</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6">
       <c r="C60" s="4">
         <v>58</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6">
       <c r="C61" s="4">
         <v>59</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6">
       <c r="C62" s="4">
         <v>60</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6">
       <c r="C63" s="4">
         <v>61</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6">
       <c r="C64" s="4">
         <v>62</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6">
       <c r="C65" s="4">
         <v>63</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" ht="19" thickBot="1">
       <c r="C66" s="6">
         <v>64</v>
       </c>
@@ -1634,6 +1646,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F66" xr:uid="{B17B7F58-0136-D740-9C96-6ED41C7F0D7B}"/>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:B1"/>
@@ -1647,13 +1660,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C58AF-FF3E-1C49-83FB-38E8EDF3697E}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="11">
         <v>5</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="11">
         <v>-1</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1733,7 +1746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="11">
         <v>7</v>
       </c>
@@ -1753,7 +1766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
         <v>-5</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
         <v>-7</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="11">
         <v>-7</v>
       </c>
@@ -1813,7 +1826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="11">
         <v>-1</v>
       </c>
@@ -1833,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1873,7 +1886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="C12" s="11">
         <v>-21</v>
       </c>
@@ -1887,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="C13" s="11">
         <v>-15</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="C14" s="11">
         <v>-9</v>
       </c>
@@ -1915,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="C15" s="11">
         <v>-3</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="C16" s="11">
         <v>3</v>
       </c>
@@ -1943,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6">
       <c r="C17" s="11">
         <v>9</v>
       </c>
@@ -1957,7 +1970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6">
       <c r="C18" s="11">
         <v>15</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6">
       <c r="C19" s="11">
         <v>21</v>
       </c>
@@ -1985,7 +1998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6">
       <c r="C20" s="11">
         <v>5</v>
       </c>
@@ -1999,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6">
       <c r="C21" s="11">
         <v>-1</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6">
       <c r="C22" s="11">
         <v>1</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6">
       <c r="C23" s="11">
         <v>7</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6">
       <c r="C24" s="11">
         <v>-27</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6">
       <c r="C25" s="11">
         <v>-21</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6">
       <c r="C26" s="11">
         <v>-15</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6">
       <c r="C27" s="11">
         <v>-9</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6">
       <c r="C28" s="11">
         <v>-3</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6">
       <c r="C29" s="11">
         <v>3</v>
       </c>
@@ -2125,7 +2138,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6">
       <c r="C30" s="11">
         <v>9</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6">
       <c r="C31" s="11">
         <v>15</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6">
       <c r="C32" s="11">
         <v>21</v>
       </c>
@@ -2167,7 +2180,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6">
       <c r="C33" s="11">
         <v>-5</v>
       </c>
@@ -2181,7 +2194,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6">
       <c r="C34" s="11">
         <v>-7</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6">
       <c r="C35" s="11">
         <v>15</v>
       </c>
@@ -2209,7 +2222,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6">
       <c r="C36" s="11">
         <v>-27</v>
       </c>
@@ -2223,7 +2236,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6">
       <c r="C37" s="11">
         <v>-21</v>
       </c>
@@ -2237,7 +2250,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6">
       <c r="C38" s="11">
         <v>-15</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6">
       <c r="C39" s="11">
         <v>-9</v>
       </c>
@@ -2265,7 +2278,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6">
       <c r="C40" s="11">
         <v>-3</v>
       </c>
@@ -2279,7 +2292,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6">
       <c r="C41" s="11">
         <v>3</v>
       </c>
@@ -2293,7 +2306,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6">
       <c r="C42" s="11">
         <v>9</v>
       </c>
@@ -2307,7 +2320,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6">
       <c r="C43" s="11">
         <v>21</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6">
       <c r="C44" s="11">
         <v>-7</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6">
       <c r="C45" s="11">
         <v>-1</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6">
       <c r="C46" s="11">
         <v>5</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6">
       <c r="C47" s="11">
         <v>-21</v>
       </c>
@@ -2377,7 +2390,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6">
       <c r="C48" s="11">
         <v>-15</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6">
       <c r="C49" s="11">
         <v>-9</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6">
       <c r="C50" s="11">
         <v>-3</v>
       </c>
@@ -2419,7 +2432,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6">
       <c r="C51" s="11">
         <v>1</v>
       </c>
@@ -2433,7 +2446,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6">
       <c r="C52" s="11">
         <v>3</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6">
       <c r="C53" s="11">
         <v>9</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6">
       <c r="C54" s="11">
         <v>15</v>
       </c>
@@ -2475,7 +2488,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6">
       <c r="C55" s="11">
         <v>21</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6">
       <c r="C56" s="11">
         <v>-15</v>
       </c>
@@ -2497,7 +2510,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6">
       <c r="C57" s="11">
         <v>-9</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6">
       <c r="C58" s="11">
         <v>-3</v>
       </c>
@@ -2513,7 +2526,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6">
       <c r="C59" s="11">
         <v>3</v>
       </c>
@@ -2521,7 +2534,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6">
       <c r="C60" s="11">
         <v>9</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6">
       <c r="C61" s="11">
         <v>15</v>
       </c>
@@ -2537,7 +2550,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6">
       <c r="C62" s="11">
         <v>-9</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6">
       <c r="C63" s="11">
         <v>-3</v>
       </c>
@@ -2553,7 +2566,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6">
       <c r="C64" s="11">
         <v>3</v>
       </c>
@@ -2561,7 +2574,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4">
       <c r="C65" s="11">
         <v>9</v>
       </c>
@@ -2570,6 +2583,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>